--- a/testexcel.xlsx
+++ b/testexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisuke\git\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D1A7F9-43A8-475A-940A-D7629C74BDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2605A493-2B7C-4226-BA30-7FF81DE6EDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -353,11 +357,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -366,6 +368,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testexcel.xlsx
+++ b/testexcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisuke\git\test2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisuke\git\test3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D1A7F9-43A8-475A-940A-D7629C74BDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A70B2E1-0AE3-4AF2-B861-734E53057486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -353,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -366,6 +370,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testexcel.xlsx
+++ b/testexcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisuke\git\test3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisuke\git\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9861DA12-AF9F-4C7E-827A-6AA2BD1B813F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73F946E-11D5-419C-B047-5FE1608798DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>test3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -361,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -384,6 +388,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testexcel.xlsx
+++ b/testexcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisuke\git\test2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisuke\git\test3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73F946E-11D5-419C-B047-5FE1608798DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9861DA12-AF9F-4C7E-827A-6AA2BD1B813F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>test3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -365,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -388,11 +384,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
